--- a/TradeManager/test/test_data/buysOnly/singleAccount/TradeRequest.xlsx
+++ b/TradeManager/test/test_data/buysOnly/singleAccount/TradeRequest.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
